--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3703B2EF-9587-40CD-BA80-E8BC351D904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969B1EB-1260-4FB9-BC46-8015BCB239FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="544">
   <si>
     <t>Schemes</t>
   </si>
@@ -2028,12 +2028,102 @@
   <si>
     <t>ImagePaths</t>
   </si>
+  <si>
+    <t>Filter Page</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>07-10-2024</t>
+  </si>
+  <si>
+    <t>07-12-2024</t>
+  </si>
+  <si>
+    <t>TransactionId</t>
+  </si>
+  <si>
+    <t>7780498015</t>
+  </si>
+  <si>
+    <t>437967259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otp List </t>
+  </si>
+  <si>
+    <t>8074072306</t>
+  </si>
+  <si>
+    <t>PaymentManagemet</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>SettingsRole</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>TitleEdit</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>PhonenUmber</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Ayesha</t>
+  </si>
+  <si>
+    <t>8500298784</t>
+  </si>
+  <si>
+    <t>ayesha@12</t>
+  </si>
+  <si>
+    <t>ayesha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add FMS USERS </t>
+  </si>
+  <si>
+    <t>Edit FMS Users</t>
+  </si>
+  <si>
+    <t>ayeshashaik@gmail.com</t>
+  </si>
+  <si>
+    <t>ayesha@123</t>
+  </si>
+  <si>
+    <t>AyeshaShaik</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2210,6 +2300,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -2342,7 +2470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2467,9 +2595,17 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3616,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC231E-7F14-492E-99A3-BD5D1C9A8E0C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3671,7 +3807,203 @@
         <v>512</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="73" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="74" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="79" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="80" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="74" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="74" t="s">
+        <v>532</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="74" t="s">
+        <v>533</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="74" t="s">
+        <v>532</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="74" t="s">
+        <v>533</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{F432187F-30B6-4B42-9B05-A5F3ADEA9562}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{78A6CCB0-0E1F-4CEF-A7FC-7BE8DE9440DB}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{A1713E02-1EE6-45B1-8B7C-5890B11C949A}"/>
+    <hyperlink ref="B36" r:id="rId4" display="ayesha@12" xr:uid="{E8E4182B-D657-4A3F-83D6-6077481DC48A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4963,20 +5295,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" s="45" t="s">

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969B1EB-1260-4FB9-BC46-8015BCB239FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B25CD-30DF-40DA-9F03-030C7CBE877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="546">
   <si>
     <t>Schemes</t>
   </si>
@@ -2117,6 +2117,12 @@
   </si>
   <si>
     <t>AyeshaShaik</t>
+  </si>
+  <si>
+    <t>TxnType</t>
+  </si>
+  <si>
+    <t>Redeemed</t>
   </si>
 </sst>
 </file>
@@ -2602,10 +2608,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3752,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC231E-7F14-492E-99A3-BD5D1C9A8E0C}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3844,165 +3850,173 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="73" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="78" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="73" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="74" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B15" s="75" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="79" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="79" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="74" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B18" s="74" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="80" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="80" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>529</v>
+        <v>464</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="74" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B23" s="74" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="73" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="73" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="74" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B28" s="75" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B30" s="82" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="74" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="74" t="s">
         <v>533</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B31" s="74" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="73" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="73" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B35" s="75" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B37" s="83" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="74" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="74" t="s">
         <v>533</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B38" s="74" t="s">
         <v>534</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{F432187F-30B6-4B42-9B05-A5F3ADEA9562}"/>
-    <hyperlink ref="B29" r:id="rId2" xr:uid="{78A6CCB0-0E1F-4CEF-A7FC-7BE8DE9440DB}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{A1713E02-1EE6-45B1-8B7C-5890B11C949A}"/>
-    <hyperlink ref="B36" r:id="rId4" display="ayesha@12" xr:uid="{E8E4182B-D657-4A3F-83D6-6077481DC48A}"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{F432187F-30B6-4B42-9B05-A5F3ADEA9562}"/>
+    <hyperlink ref="B30" r:id="rId2" xr:uid="{78A6CCB0-0E1F-4CEF-A7FC-7BE8DE9440DB}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{A1713E02-1EE6-45B1-8B7C-5890B11C949A}"/>
+    <hyperlink ref="B37" r:id="rId4" display="ayesha@12" xr:uid="{E8E4182B-D657-4A3F-83D6-6077481DC48A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5295,20 +5309,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" s="45" t="s">

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B25CD-30DF-40DA-9F03-030C7CBE877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22977B60-4DAB-4B64-9DC9-2D2B3E74639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId9"/>
     <sheet name="Sprint-6 Negative" sheetId="10" r:id="rId10"/>
     <sheet name="Sprint 8" sheetId="11" r:id="rId11"/>
+    <sheet name="Sprint 9" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="593">
   <si>
     <t>Schemes</t>
   </si>
@@ -2071,24 +2072,12 @@
     <t>Automation</t>
   </si>
   <si>
-    <t>TitleEdit</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>Kiran</t>
   </si>
   <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>PhonenUmber</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -2123,13 +2112,166 @@
   </si>
   <si>
     <t>Redeemed</t>
+  </si>
+  <si>
+    <t>AddFullName</t>
+  </si>
+  <si>
+    <t>AddPhoneNumber</t>
+  </si>
+  <si>
+    <t>AddEmail</t>
+  </si>
+  <si>
+    <t>AddPassword</t>
+  </si>
+  <si>
+    <t>Gold Prices Page</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>Filter Button</t>
+  </si>
+  <si>
+    <t>EnterDate</t>
+  </si>
+  <si>
+    <t>SearchEdt</t>
+  </si>
+  <si>
+    <t>08-08-2024</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>SearchInputFeild</t>
+  </si>
+  <si>
+    <t>RoleTitle</t>
+  </si>
+  <si>
+    <t>RoleTitleEdit</t>
+  </si>
+  <si>
+    <t>FmsSearchFeild</t>
+  </si>
+  <si>
+    <t>FmsRole</t>
+  </si>
+  <si>
+    <t>EditPhonenUmber</t>
+  </si>
+  <si>
+    <t>EditEmail</t>
+  </si>
+  <si>
+    <t>EditPassword</t>
+  </si>
+  <si>
+    <t>EditRole</t>
+  </si>
+  <si>
+    <t>EditFullName</t>
+  </si>
+  <si>
+    <t>Penalty Users</t>
+  </si>
+  <si>
+    <t>PenaltyUsersSearchEdt</t>
+  </si>
+  <si>
+    <t>Soumya</t>
+  </si>
+  <si>
+    <t>Merchants</t>
+  </si>
+  <si>
+    <t>MerchantsSearchEdt</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Merchants </t>
+  </si>
+  <si>
+    <t>MerchantNameEdt</t>
+  </si>
+  <si>
+    <t>MerchantJoinedDateEdt</t>
+  </si>
+  <si>
+    <t>MerchantEmailEdt</t>
+  </si>
+  <si>
+    <t>MerchantAddressEdt</t>
+  </si>
+  <si>
+    <t>MerchantsGcExpiryTimeEdt</t>
+  </si>
+  <si>
+    <t>MerchantsPhoneNumberEdt</t>
+  </si>
+  <si>
+    <t>Edit Merchants</t>
+  </si>
+  <si>
+    <t>MerchantsEditMerchantsNameEdt</t>
+  </si>
+  <si>
+    <t>MerchantEditJoinedDateEdt</t>
+  </si>
+  <si>
+    <t>MerchantEditEmailEdt</t>
+  </si>
+  <si>
+    <t>MerchantEditGcExpiryTimeEdt</t>
+  </si>
+  <si>
+    <t>MerchantEditAddressEdt</t>
+  </si>
+  <si>
+    <t>Ayesha Shaik</t>
+  </si>
+  <si>
+    <t>MerchantEditPhoneNumberEdt</t>
+  </si>
+  <si>
+    <t>Prakash Nagar Hyderabad</t>
+  </si>
+  <si>
+    <t>Begumpet Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 </t>
+  </si>
+  <si>
+    <t>16-08-2024</t>
+  </si>
+  <si>
+    <t>15-08-2024</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,6 +2486,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -2476,7 +2652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2609,6 +2785,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2633,7 +2815,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Green">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2641,34 +2823,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="455F51"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="549E39"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="8AB833"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="C0CF3A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="029676"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4AB5C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="0989B1"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="BA6906"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -3760,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC231E-7F14-492E-99A3-BD5D1C9A8E0C}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3852,10 +4034,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="78" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3891,7 +4073,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="74" t="s">
-        <v>464</v>
+        <v>556</v>
       </c>
       <c r="B21" s="81" t="s">
         <v>526</v>
@@ -3899,15 +4081,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="74" t="s">
-        <v>179</v>
+        <v>557</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="74" t="s">
-        <v>528</v>
+      <c r="A23" s="84" t="s">
+        <v>558</v>
       </c>
       <c r="B23" s="74" t="s">
         <v>527</v>
@@ -3915,100 +4097,100 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="73" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="74" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="74" t="s">
+        <v>542</v>
+      </c>
+      <c r="B27" s="74" t="s">
         <v>531</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="74" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" s="75" t="s">
         <v>532</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="74" t="s">
-        <v>130</v>
+        <v>544</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="74" t="s">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="74" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="73" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="74" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="74" t="s">
+        <v>561</v>
+      </c>
+      <c r="B35" s="75" t="s">
         <v>532</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="74" t="s">
-        <v>130</v>
+        <v>562</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="74" t="s">
-        <v>299</v>
+        <v>563</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="74" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4019,6 +4201,205 @@
     <hyperlink ref="B37" r:id="rId4" display="ayesha@12" xr:uid="{E8E4182B-D657-4A3F-83D6-6077481DC48A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8597025-EC5D-4A18-8BAD-57A9E1086108}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="74" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="88" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="74" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="88" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="74" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="74" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="74" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="74" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="88" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="74" t="s">
+        <v>570</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="88" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="87" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="88" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="74" t="s">
+        <v>580</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="86" t="s">
+        <v>581</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="85" t="s">
+        <v>582</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="74" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="86" t="s">
+        <v>583</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="85" t="s">
+        <v>586</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{86719CD5-E0A0-44C7-8EC9-9B6F8D417470}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{B23AF404-A10E-44C3-A9D2-62B3EBD2A427}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5309,20 +5690,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" s="45" t="s">

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22977B60-4DAB-4B64-9DC9-2D2B3E74639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCBD5E4-20A5-4F5B-BF64-D43ABC8575E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="Sprint-6 Negative" sheetId="10" r:id="rId10"/>
     <sheet name="Sprint 8" sheetId="11" r:id="rId11"/>
     <sheet name="Sprint 9" sheetId="12" r:id="rId12"/>
+    <sheet name="Sprint 10" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="617">
   <si>
     <t>Schemes</t>
   </si>
@@ -2266,12 +2267,84 @@
   <si>
     <t>89</t>
   </si>
+  <si>
+    <t xml:space="preserve">Schemes </t>
+  </si>
+  <si>
+    <t>AddSchemeName</t>
+  </si>
+  <si>
+    <t>Festive Plan</t>
+  </si>
+  <si>
+    <t>SelectCountry</t>
+  </si>
+  <si>
+    <t>CalculationType</t>
+  </si>
+  <si>
+    <t>Add Scheme Details</t>
+  </si>
+  <si>
+    <t>Edit Scheme Details</t>
+  </si>
+  <si>
+    <t>EditSchemeName</t>
+  </si>
+  <si>
+    <t>EditSelectCountry</t>
+  </si>
+  <si>
+    <t>EditCalculationType</t>
+  </si>
+  <si>
+    <t>EditDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24K Gold Plan </t>
+  </si>
+  <si>
+    <t>22K Gold Plan</t>
+  </si>
+  <si>
+    <t>Festive Collection Plan</t>
+  </si>
+  <si>
+    <t>Jewllery Plan</t>
+  </si>
+  <si>
+    <t>Manage Tenure</t>
+  </si>
+  <si>
+    <t>EnterMonths</t>
+  </si>
+  <si>
+    <t>Manage Amount</t>
+  </si>
+  <si>
+    <t>Gpld Plus Plan Users</t>
+  </si>
+  <si>
+    <t>SearchEdit</t>
+  </si>
+  <si>
+    <t>Pavani123</t>
+  </si>
+  <si>
+    <t>UpiNameEdt</t>
+  </si>
+  <si>
+    <t>6309631698@ybl</t>
+  </si>
+  <si>
+    <t>PhoneNumberEdt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2520,6 +2593,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -2652,7 +2746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2791,6 +2885,10 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3073,7 +3171,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD46"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3942,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC231E-7F14-492E-99A3-BD5D1C9A8E0C}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -4208,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8597025-EC5D-4A18-8BAD-57A9E1086108}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4400,6 +4498,167 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A575EBB-603B-4DF0-B3D4-A9F6CE80C04F}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="90" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="91"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="92" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="90" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="90" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="92" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="90" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="90" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="90" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="90" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="92" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="90" t="s">
+        <v>609</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="92" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="92" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="90" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="90" t="s">
+        <v>614</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{553C252A-C905-4063-8266-F4A57F0336C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4725,7 +4984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -5690,20 +5949,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" s="45" t="s">
@@ -5746,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -6902,7 +7161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -7530,7 +7789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCBD5E4-20A5-4F5B-BF64-D43ABC8575E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A495C238-D865-4771-B1FE-00C1195B5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,21 @@
     <sheet name="Banners_Coupons_Giftcards" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint-5 Negative" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint-4 Positive" sheetId="7" r:id="rId7"/>
-    <sheet name="ImagePath" sheetId="8" r:id="rId8"/>
+    <sheet name="Imagepath" sheetId="8" r:id="rId8"/>
     <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId9"/>
-    <sheet name="Sprint-6 Negative" sheetId="10" r:id="rId10"/>
+    <sheet name="Sprint-5-Categ&amp;Sub-Negative New" sheetId="15" r:id="rId10"/>
     <sheet name="Sprint 8" sheetId="11" r:id="rId11"/>
-    <sheet name="Sprint 9" sheetId="12" r:id="rId12"/>
-    <sheet name="Sprint 10" sheetId="13" r:id="rId13"/>
+    <sheet name="Sprint 6 Negative" sheetId="16" r:id="rId12"/>
+    <sheet name="Sprint 9" sheetId="12" r:id="rId13"/>
+    <sheet name="Sprint 10" sheetId="13" r:id="rId14"/>
+    <sheet name="Sprint 11" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="692">
   <si>
     <t>Schemes</t>
   </si>
@@ -1854,13 +1856,7 @@
     <t>AddImagePath</t>
   </si>
   <si>
-    <t>C:\\Users\\vikra\\OneDrive\\Desktop\\One Drive Folder\\OneDrive\\Pictures\\Saved Pictures\\download.jpg</t>
-  </si>
-  <si>
     <t>EditImagePath</t>
-  </si>
-  <si>
-    <t>C:\Users\vikra\OneDrive\Desktop\One Drive Folder\OneDrive\Pictures\Saved Pictures\Necklace.jpg</t>
   </si>
   <si>
     <t>Categories</t>
@@ -1950,15 +1946,9 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>30-05-2026</t>
-  </si>
-  <si>
     <t>StartMonth</t>
   </si>
   <si>
@@ -1971,24 +1961,15 @@
     <t>April</t>
   </si>
   <si>
-    <t>30-06-2026</t>
-  </si>
-  <si>
     <t>StartYear</t>
   </si>
   <si>
-    <t>2026</t>
-  </si>
-  <si>
     <t>EndYear</t>
   </si>
   <si>
     <t>Notifications</t>
   </si>
   <si>
-    <t>jknkjgjhb</t>
-  </si>
-  <si>
     <t>Add Notification</t>
   </si>
   <si>
@@ -1998,9 +1979,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>This is Best Jewellery</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -2338,18 +2316,288 @@
   </si>
   <si>
     <t>PhoneNumberEdt</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Settings FMS Users</t>
+  </si>
+  <si>
+    <t>C:\\Users\\admin\\Pictures\\Saved Pictures\\Bangles.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddCategory </t>
+  </si>
+  <si>
+    <t>ExpireDate</t>
+  </si>
+  <si>
+    <t>SelectTXNType</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Credict</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>EditMainBanners</t>
+  </si>
+  <si>
+    <t>EditFromDate</t>
+  </si>
+  <si>
+    <t>EditExpireDate</t>
+  </si>
+  <si>
+    <t>EditSequenceNo</t>
+  </si>
+  <si>
+    <t>EditSplashBanners</t>
+  </si>
+  <si>
+    <t>EditEcomBanners</t>
+  </si>
+  <si>
+    <t>MinimumTransaction</t>
+  </si>
+  <si>
+    <t>EditCoupons</t>
+  </si>
+  <si>
+    <t>EditAmount</t>
+  </si>
+  <si>
+    <t>EditMinimumTransaction</t>
+  </si>
+  <si>
+    <t>6-25-2024</t>
+  </si>
+  <si>
+    <t>6-24-2024</t>
+  </si>
+  <si>
+    <t>5-22-2026</t>
+  </si>
+  <si>
+    <t>Order Delivered</t>
+  </si>
+  <si>
+    <t>Order Generated</t>
+  </si>
+  <si>
+    <t>Your Order Has been Successfully Created</t>
+  </si>
+  <si>
+    <t>Update Notification</t>
+  </si>
+  <si>
+    <t>Stock Not Available</t>
+  </si>
+  <si>
+    <t>cgfhgvh</t>
+  </si>
+  <si>
+    <t>5/28/2002</t>
+  </si>
+  <si>
+    <t>5/28/2016</t>
+  </si>
+  <si>
+    <t>AFromDate</t>
+  </si>
+  <si>
+    <t>5/28/2024</t>
+  </si>
+  <si>
+    <t>AExpireDate</t>
+  </si>
+  <si>
+    <t>FilterPageNegative</t>
+  </si>
+  <si>
+    <t>PastFromDate</t>
+  </si>
+  <si>
+    <t>5/22/2002</t>
+  </si>
+  <si>
+    <t>PastExpireDate</t>
+  </si>
+  <si>
+    <t>5/30/2009</t>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Add Gold</t>
+  </si>
+  <si>
+    <t>AllUserSearchValue</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>ReferredUserListSearchValue</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Invalid User</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>madhu</t>
+  </si>
+  <si>
+    <t>sdfghxcvb</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>8179645836</t>
+  </si>
+  <si>
+    <t>350640869</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>06-02-2024</t>
+  </si>
+  <si>
+    <t>1871560882</t>
+  </si>
+  <si>
+    <t>86554447</t>
+  </si>
+  <si>
+    <t>09-02-2023</t>
+  </si>
+  <si>
+    <t>10-04-2025</t>
+  </si>
+  <si>
+    <t>09-02-2025</t>
+  </si>
+  <si>
+    <t>12287987989</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>absxzzs</t>
+  </si>
+  <si>
+    <t>Bangle</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>AddProduct</t>
+  </si>
+  <si>
+    <t>SilverBangle</t>
+  </si>
+  <si>
+    <t>SetectCarat</t>
+  </si>
+  <si>
+    <t>22 Carat</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>VaPercentage</t>
+  </si>
+  <si>
+    <t>IsShown</t>
+  </si>
+  <si>
+    <t>StoneName</t>
+  </si>
+  <si>
+    <t>Perls</t>
+  </si>
+  <si>
+    <t>StoneColor</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>StonePrice</t>
+  </si>
+  <si>
+    <t>NumberOfStines</t>
+  </si>
+  <si>
+    <t>EditProduct</t>
+  </si>
+  <si>
+    <t>Banglezz</t>
+  </si>
+  <si>
+    <t>Banglerr</t>
+  </si>
+  <si>
+    <t>Gold Banglesee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2560,12 +2808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F7F5F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
@@ -2614,6 +2856,24 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -2621,12 +2881,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2730,6 +2984,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2742,156 +3002,169 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3187,8 +3460,8 @@
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="54" customFormat="1">
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:11" s="53" customFormat="1">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3196,25 +3469,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="56" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3222,25 +3495,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3248,25 +3521,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3274,25 +3547,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3300,25 +3573,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="56" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3326,25 +3599,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3352,25 +3625,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3378,25 +3651,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="56" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3404,25 +3677,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3430,25 +3703,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="56" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="56" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3456,25 +3729,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="56" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3482,30 +3755,30 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3513,31 +3786,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="56" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="56" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="56" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3545,31 +3818,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="56" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="56" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3577,31 +3850,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="56" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="56" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="56" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="56" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3609,31 +3882,31 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="56" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="57" t="s">
+      <c r="M20" s="56" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3641,13 +3914,13 @@
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="56" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="56" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3655,31 +3928,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="56" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="56" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="M22" s="56" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3687,31 +3960,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="56" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="56" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="56" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3719,31 +3992,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="56" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="56" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="56" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="56" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3751,57 +4024,57 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="56" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M25" s="56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="55" customFormat="1">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:13" s="54" customFormat="1">
+      <c r="A29" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="55" t="s">
         <v>48</v>
       </c>
       <c r="B32" t="s">
@@ -3809,7 +4082,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="55" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
@@ -3817,7 +4090,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B34" t="s">
@@ -3825,7 +4098,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
@@ -3833,7 +4106,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
@@ -3841,7 +4114,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B37" t="s">
@@ -3849,7 +4122,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
@@ -3857,7 +4130,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
@@ -3865,7 +4138,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
@@ -3873,7 +4146,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
@@ -3881,7 +4154,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="s">
@@ -3889,15 +4162,15 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="55" customFormat="1">
-      <c r="A45" s="55" t="s">
+    <row r="45" spans="1:2" s="54" customFormat="1">
+      <c r="A45" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3916,123 +4189,723 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BCC09D-5893-470D-8226-7C2AE1C459B3}">
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:2" s="95" customFormat="1">
+      <c r="A1" s="96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="95" customFormat="1">
+      <c r="A3" s="95" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="95" customFormat="1">
+      <c r="A5" s="95" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="95" customFormat="1">
+      <c r="A7" s="95" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="95" customFormat="1">
+      <c r="A10" s="95" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="95" customFormat="1">
+      <c r="A12" s="95" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="95" customFormat="1">
+      <c r="A16" s="95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="95" customFormat="1">
+      <c r="A21" s="99" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="98" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="95" customFormat="1">
+      <c r="A23" s="99" t="s">
+        <v>675</v>
+      </c>
+      <c r="B23" s="99"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="98" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="98" t="s">
+        <v>677</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="98" t="s">
+        <v>679</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="98" t="s">
+        <v>680</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="98" t="s">
+        <v>681</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="98" t="s">
+        <v>682</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="98" t="s">
+        <v>686</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="98" t="s">
+        <v>687</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="95" customFormat="1">
+      <c r="A37" s="99" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="98" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="98" t="s">
+        <v>677</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="98" t="s">
+        <v>679</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="98" t="s">
+        <v>680</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="98" t="s">
+        <v>681</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="98" t="s">
+        <v>682</v>
+      </c>
+      <c r="B46" s="98" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="B47" s="98" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="98" t="s">
+        <v>686</v>
+      </c>
+      <c r="B48" s="100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="98" t="s">
+        <v>687</v>
+      </c>
+      <c r="B49" s="100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="95" customFormat="1">
+      <c r="A52" s="95" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>507</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>613</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="E2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="C4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>504</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
+      <c r="B55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="95" customFormat="1">
+      <c r="A58" s="95" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>507</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>613</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>614</v>
+      </c>
+      <c r="B61" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>472</v>
+      </c>
+      <c r="B62" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>617</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="95" customFormat="1">
+      <c r="A66" s="95" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>613</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="95" customFormat="1">
+      <c r="A71" s="95" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>507</v>
+      </c>
+      <c r="B72" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>613</v>
+      </c>
+      <c r="B73" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="95" customFormat="1">
+      <c r="A76" s="95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>507</v>
+      </c>
+      <c r="B77" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>613</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="95" customFormat="1">
+      <c r="A81" s="95" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>620</v>
+      </c>
+      <c r="B83" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>621</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="95" customFormat="1">
+      <c r="A86" s="95" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>619</v>
+      </c>
+      <c r="B87" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>620</v>
+      </c>
+      <c r="B88" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>621</v>
+      </c>
+      <c r="B89" s="56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="95" customFormat="1">
+      <c r="A91" s="95" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>619</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>620</v>
+      </c>
+      <c r="B93" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>621</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="95" customFormat="1">
+      <c r="A96" s="95" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>507</v>
+      </c>
+      <c r="B98" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>613</v>
+      </c>
+      <c r="B99" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>624</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>364</v>
+      </c>
+      <c r="B101" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="95" customFormat="1">
+      <c r="A103" s="99" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>626</v>
+      </c>
+      <c r="B104" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>619</v>
+      </c>
+      <c r="B105" s="70" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" s="70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>627</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>595</v>
+      </c>
+      <c r="B108" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4041,254 +4914,254 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="76.7109375" style="74" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="24.42578125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="73" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="73" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="72" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="74" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="73" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="73" t="s">
+      <c r="B8" s="76" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="74" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="76" t="s">
         <v>509</v>
       </c>
-      <c r="B4" s="75" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="74" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="72" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="77" t="s">
         <v>510</v>
       </c>
-      <c r="B5" s="75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="B11" s="74" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="72" t="s">
         <v>513</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="73" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="73" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="74" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="74" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="78" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="77" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="73" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="76" t="s">
-        <v>479</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="79" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="75" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="73" t="s">
+        <v>548</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="73" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" s="73" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="78" t="s">
-        <v>540</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="73" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="72" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="73" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" s="73" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="75" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="73" t="s">
+        <v>534</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="73" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="73" t="s">
+        <v>552</v>
+      </c>
+      <c r="B31" s="73" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="79" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="74" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="73" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="73" t="s">
+        <v>553</v>
+      </c>
+      <c r="B35" s="74" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="80" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="74" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="73" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="73" t="s">
+        <v>555</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="B21" s="81" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="74" t="s">
-        <v>557</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="84" t="s">
-        <v>558</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="73" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="74" t="s">
-        <v>559</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="74" t="s">
-        <v>542</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="74" t="s">
-        <v>543</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="74" t="s">
-        <v>544</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="74" t="s">
-        <v>545</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="74" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="73" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="74" t="s">
-        <v>565</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="74" t="s">
-        <v>561</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="74" t="s">
-        <v>562</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="74" t="s">
-        <v>563</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="74" t="s">
-        <v>564</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>530</v>
+      <c r="B38" s="73" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4303,192 +5176,539 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D4140-E6B8-477D-B47E-3E41FD805E02}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" activeCellId="1" sqref="D44 G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="95" customFormat="1">
+      <c r="A1" s="95" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="E4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="95" customFormat="1">
+      <c r="A6" s="95" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="95" customFormat="1">
+      <c r="A9" s="95" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="95" customFormat="1">
+      <c r="A14" s="95" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="95" customFormat="1">
+      <c r="A19" s="95" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="95" customFormat="1">
+      <c r="A21" s="95" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>507</v>
+      </c>
+      <c r="B22" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>639</v>
+      </c>
+      <c r="B26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B27" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="95" customFormat="1">
+      <c r="A28" s="95" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>643</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>645</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>647</v>
+      </c>
+      <c r="B32" t="s">
+        <v>648</v>
+      </c>
+      <c r="C32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>650</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>652</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="F36" t="s">
+        <v>653</v>
+      </c>
+      <c r="G36" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="95" customFormat="1">
+      <c r="A37" s="95" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="95" customFormat="1">
+      <c r="A40" s="95" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>657</v>
+      </c>
+      <c r="C41" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8597025-EC5D-4A18-8BAD-57A9E1086108}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="74" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="74" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="34.28515625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="73" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="73" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="86" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="73" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="73" t="s">
+        <v>544</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="73" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="74" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="88" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="74" t="s">
-        <v>549</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="74" t="s">
-        <v>552</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="74" t="s">
-        <v>554</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>555</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="86" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="73" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="86" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="86" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="73" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="73" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="74" t="s">
+      <c r="B22" s="74" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="73" t="s">
         <v>567</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B23" s="46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="85" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="88" t="s">
+      <c r="B24" s="73" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="73" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="74" t="s">
+      <c r="B25" s="74" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B26" s="74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="86" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="88" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="73" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="74" t="s">
+      <c r="B30" s="73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="84" t="s">
         <v>573</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="74" t="s">
+      <c r="B31" s="74" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="74" t="s">
+      <c r="B32" s="46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="73" t="s">
+        <v>576</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="84" t="s">
         <v>575</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="87" t="s">
-        <v>576</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="74" t="s">
-        <v>577</v>
-      </c>
-      <c r="B25" s="75" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="74" t="s">
+      <c r="B34" s="74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="83" t="s">
         <v>578</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="88" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="74" t="s">
-        <v>580</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="86" t="s">
-        <v>581</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="85" t="s">
-        <v>582</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="74" t="s">
-        <v>584</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="86" t="s">
-        <v>583</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="85" t="s">
-        <v>586</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>532</v>
+      <c r="B35" s="74" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4501,155 +5721,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A575EBB-603B-4DF0-B3D4-A9F6CE80C04F}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="90" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="90" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="90"/>
+    <col min="1" max="1" width="21.7109375" style="88" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="88" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="89"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="88" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="88" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="88" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="88" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="88" t="s">
+        <v>592</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="88" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="91"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="92" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="90" t="s">
+      <c r="B11" s="88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B12" s="88" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="88" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="90" t="s">
+      <c r="B13" s="88" t="s">
         <v>596</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="90" t="s">
-        <v>597</v>
-      </c>
-      <c r="B6" s="90" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="90" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="88" t="s">
+        <v>601</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="90" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="88" t="s">
+        <v>606</v>
+      </c>
+      <c r="B24" s="82" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="92" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="90" t="s">
-        <v>600</v>
-      </c>
-      <c r="B10" s="90" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="90" t="s">
-        <v>601</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="90" t="s">
-        <v>602</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="90" t="s">
-        <v>603</v>
-      </c>
-      <c r="B13" s="90" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="92" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="88" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="90" t="s">
-        <v>609</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="92" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="92" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="90" t="s">
-        <v>612</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="90" t="s">
-        <v>614</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="90" t="s">
-        <v>616</v>
-      </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="91" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4659,6 +5879,174 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7563B8-890A-4DBD-9669-9D67E55F639E}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="92" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="94" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="73" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="93" t="s">
+        <v>610</v>
+      </c>
+      <c r="B7" s="73"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="72" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="73"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="73" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="73" t="s">
+        <v>534</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="73" t="s">
+        <v>535</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="73" t="s">
+        <v>552</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="72" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="73"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="73" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="73" t="s">
+        <v>553</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="73" t="s">
+        <v>554</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="73" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="73" t="s">
+        <v>556</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{84B80619-075A-458E-AAC6-BDEFEF866E86}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{4D8D5BE3-33B1-499F-91E2-D6B02DDF1731}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{E6E53DC7-743B-48E4-9FF7-1EF0B2E021FD}"/>
+    <hyperlink ref="B21" r:id="rId4" display="ayesha@12" xr:uid="{568CE039-5FCD-48ED-8B97-CA2CA95FBFE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4673,32 +6061,32 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4721,257 +6109,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="52" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="52" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="52" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="52" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="52" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="52" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="52" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="52" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="52" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="52" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="52" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="52" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="52" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="52" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="52" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="52" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5000,10 +6388,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5022,10 +6410,10 @@
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5033,21 +6421,21 @@
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5083,13 +6471,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5111,18 +6499,18 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5130,7 +6518,7 @@
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
@@ -5141,10 +6529,10 @@
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="56" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5152,7 +6540,7 @@
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="46" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
@@ -5196,10 +6584,10 @@
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="56" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5215,28 +6603,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5270,10 +6658,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -5282,10 +6670,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="56" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -5305,7 +6693,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="46" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -5348,39 +6736,39 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="56" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="45" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5394,7 +6782,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -5406,19 +6794,19 @@
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="56" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5474,7 +6862,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="49" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5502,18 +6890,18 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="45" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="46"/>
+      <c r="A40" s="45"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="56" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -5522,7 +6910,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="56" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5539,25 +6927,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="47" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5565,30 +6953,30 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="56" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="45" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5607,10 +6995,10 @@
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="56" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5618,10 +7006,10 @@
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="56" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5629,7 +7017,7 @@
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="56" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
@@ -5640,7 +7028,7 @@
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="56" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5648,10 +7036,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="45" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
@@ -5659,7 +7047,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="D54" s="51"/>
+      <c r="D54" s="50"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5679,10 +7067,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="56" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5693,7 +7081,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="48" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5707,10 +7095,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="46" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5721,13 +7109,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="20" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5735,13 +7123,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5749,10 +7137,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="56" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5763,24 +7151,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="51" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="50"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5789,7 +7177,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="46" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5814,13 +7202,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="20" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5828,10 +7216,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="56" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5853,7 +7241,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="45" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5872,7 +7260,7 @@
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
@@ -5943,53 +7331,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="44" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="44"/>
+    <col min="1" max="1" width="13.140625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="43" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="43" customFormat="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" s="42" customFormat="1">
+      <c r="A1" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="30">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6011,1136 +7399,1136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="19.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="23.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="23"/>
+    <col min="10" max="10" width="19.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" s="28" customFormat="1">
+      <c r="A1" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="30" customFormat="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:3" s="29" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="30" customFormat="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:3" s="29" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="23" customFormat="1">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:3" s="22" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="30" customFormat="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:3" s="29" customFormat="1">
+      <c r="A12" s="29" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="23" customFormat="1">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:3" s="22" customFormat="1">
+      <c r="A15" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:11" s="22" customFormat="1">
+      <c r="A19" s="22" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="30" customFormat="1">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:11" s="29" customFormat="1">
+      <c r="A23" s="29" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:11" s="23" customFormat="1">
-      <c r="A26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" s="22" customFormat="1">
+      <c r="A26" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="25.5">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="23" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="25.5">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="23" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="23" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="64" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="23" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="23" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="64" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="64" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="64" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="65" t="s">
+      <c r="H37" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:11" s="22" customFormat="1">
+      <c r="A39" s="36" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="27"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:11" s="23" customFormat="1">
-      <c r="A45" s="39" t="s">
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:11" s="22" customFormat="1">
+      <c r="A45" s="38" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="23" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="30" customFormat="1">
-      <c r="A48" s="40" t="s">
+    <row r="48" spans="1:11" s="29" customFormat="1">
+      <c r="A48" s="39" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="65" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="64" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="66" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="27"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="64" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="30" customFormat="1">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:5" s="29" customFormat="1">
+      <c r="A55" s="29" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="27"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="67" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="22" customFormat="1">
-      <c r="A61" s="22" t="s">
+    <row r="61" spans="1:5" s="21" customFormat="1">
+      <c r="A61" s="21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="23" customFormat="1">
-      <c r="A62" s="23" t="s">
+    <row r="62" spans="1:5" s="22" customFormat="1">
+      <c r="A62" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="27"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="64" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="25" customFormat="1">
-      <c r="A67" s="25" t="s">
+    <row r="67" spans="1:5" s="24" customFormat="1">
+      <c r="A67" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="27"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="27"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="27"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="E71" s="27"/>
-    </row>
-    <row r="72" spans="1:5" s="23" customFormat="1">
-      <c r="A72" s="23" t="s">
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" s="22" customFormat="1">
+      <c r="A72" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="39"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C74" s="64" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="E76" s="27"/>
-    </row>
-    <row r="77" spans="1:5" s="25" customFormat="1">
-      <c r="A77" s="25" t="s">
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" spans="1:5" s="24" customFormat="1">
+      <c r="A77" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="26"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="27"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="27"/>
+      <c r="E80" s="26"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="E81" s="27"/>
-    </row>
-    <row r="82" spans="1:5" s="23" customFormat="1">
-      <c r="A82" s="23" t="s">
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" spans="1:5" s="22" customFormat="1">
+      <c r="A82" s="22" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="65" t="s">
+      <c r="C84" s="64" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="64" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="E86" s="27"/>
-    </row>
-    <row r="87" spans="1:5" s="25" customFormat="1">
-      <c r="A87" s="25" t="s">
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" spans="1:5" s="24" customFormat="1">
+      <c r="A87" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="27"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="66" t="s">
+      <c r="B89" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="27"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="64" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="22" customFormat="1">
-      <c r="A93" s="22" t="s">
+    <row r="93" spans="1:5" s="21" customFormat="1">
+      <c r="A93" s="21" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="23" customFormat="1">
-      <c r="A94" s="23" t="s">
+    <row r="94" spans="1:5" s="22" customFormat="1">
+      <c r="A94" s="22" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="28" customFormat="1">
-      <c r="A95" s="28" t="s">
+    <row r="95" spans="1:5" s="27" customFormat="1">
+      <c r="A95" s="27" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="27"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="64" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="65" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="25.5">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="41" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="E101" s="27"/>
-    </row>
-    <row r="102" spans="1:13" s="28" customFormat="1">
-      <c r="A102" s="28" t="s">
+      <c r="E101" s="26"/>
+    </row>
+    <row r="102" spans="1:13" s="27" customFormat="1">
+      <c r="A102" s="27" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="27"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="27"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="65" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="27"/>
-      <c r="I106" s="42"/>
-      <c r="K106" s="27"/>
+      <c r="E106" s="26"/>
+      <c r="I106" s="41"/>
+      <c r="K106" s="26"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="27"/>
+      <c r="M107" s="26"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="23" customFormat="1">
-      <c r="A110" s="23" t="s">
+    <row r="110" spans="1:13" s="22" customFormat="1">
+      <c r="A110" s="22" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="28" customFormat="1">
-      <c r="A111" s="28" t="s">
+    <row r="111" spans="1:13" s="27" customFormat="1">
+      <c r="A111" s="27" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="24" t="s">
+      <c r="A112" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="65" t="s">
+      <c r="B112" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="27"/>
+      <c r="E112" s="26"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="65" t="s">
+      <c r="B113" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="65" t="s">
+      <c r="C113" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="27"/>
+      <c r="E113" s="26"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="65" t="s">
+      <c r="C114" s="64" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="25.5">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="64" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="C116" s="64" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D117" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="24" t="s">
+      <c r="E117" s="23" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="28" customFormat="1">
-      <c r="A119" s="28" t="s">
+    <row r="119" spans="1:5" s="27" customFormat="1">
+      <c r="A119" s="27" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="27"/>
+      <c r="E120" s="26"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="65" t="s">
+      <c r="B121" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="27"/>
+      <c r="E121" s="26"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="65" t="s">
+      <c r="B122" s="64" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="25.5">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="65" t="s">
+      <c r="B123" s="64" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="65" t="s">
+      <c r="B124" s="64" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="23" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="42" t="s">
+      <c r="B126" s="41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="22" customFormat="1">
-      <c r="A129" s="22" t="s">
+    <row r="129" spans="1:5" s="21" customFormat="1">
+      <c r="A129" s="21" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="23" customFormat="1">
-      <c r="A130" s="23" t="s">
+    <row r="130" spans="1:5" s="22" customFormat="1">
+      <c r="A130" s="22" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="31" customFormat="1">
-      <c r="A131" s="31" t="s">
+    <row r="131" spans="1:5" s="30" customFormat="1">
+      <c r="A131" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="30" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="24" t="s">
+      <c r="A132" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="23" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="24" t="s">
+      <c r="A133" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="65" t="s">
+      <c r="B133" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="27"/>
+      <c r="E133" s="26"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="42" t="s">
+      <c r="B134" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="27"/>
+      <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="23" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="24" t="s">
+      <c r="A136" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="65" t="s">
+      <c r="B136" s="64" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7172,578 +8560,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="26.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="26.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" ht="26.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="26.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7754,30 +9142,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="120.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>460</v>
+      <c r="B1" s="20" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -7789,8 +9175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7800,185 +9186,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" s="3" customFormat="1">
-      <c r="A10" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
+      <c r="B21" s="68" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B22" s="69" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B23" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="69" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A495C238-D865-4771-B1FE-00C1195B5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B719F-441F-46B1-A7EB-042C353B32E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -3161,10 +3161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4192,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BCC09D-5893-470D-8226-7C2AE1C459B3}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4229,7 +4229,7 @@
       <c r="A6" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="102" t="s">
         <v>689</v>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       <c r="A8" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>690</v>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       <c r="A13" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="102" t="s">
         <v>690</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="A17" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="102" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5179,8 +5179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D4140-E6B8-477D-B47E-3E41FD805E02}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" activeCellId="1" sqref="D44 G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7337,20 +7337,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="42" customFormat="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" s="44" t="s">

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B719F-441F-46B1-A7EB-042C353B32E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864EA3A6-6C9F-4D0B-95F5-1D863B070249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -5179,7 +5179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D4140-E6B8-477D-B47E-3E41FD805E02}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -7393,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Automation_1_A.xlsx
+++ b/src/test/resources/Automation_1_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Eclipse_Workspace\GoldBox_All_Sprints\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864EA3A6-6C9F-4D0B-95F5-1D863B070249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC67F1-C652-40F5-8AC5-3639C52F691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Settings" sheetId="4" r:id="rId4"/>
     <sheet name="Banners_Coupons_Giftcards" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint-5 Negative" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint-4 Positive" sheetId="7" r:id="rId7"/>
-    <sheet name="Imagepath" sheetId="8" r:id="rId8"/>
-    <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId9"/>
-    <sheet name="Sprint-5-Categ&amp;Sub-Negative New" sheetId="15" r:id="rId10"/>
-    <sheet name="Sprint 8" sheetId="11" r:id="rId11"/>
-    <sheet name="Sprint 6 Negative" sheetId="16" r:id="rId12"/>
-    <sheet name="Sprint 9" sheetId="12" r:id="rId13"/>
-    <sheet name="Sprint 10" sheetId="13" r:id="rId14"/>
-    <sheet name="Sprint 11" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId7"/>
+    <sheet name="Sprint-4 Positive" sheetId="7" r:id="rId8"/>
+    <sheet name="Imagepath" sheetId="8" r:id="rId9"/>
+    <sheet name="Sprint-5-Categ&amp;Sub-Negative" sheetId="9" r:id="rId10"/>
+    <sheet name="Sprint-5-Categ&amp;Sub-Negative New" sheetId="15" r:id="rId11"/>
+    <sheet name="Sprint 8" sheetId="11" r:id="rId12"/>
+    <sheet name="Sprint 6 Negative" sheetId="16" r:id="rId13"/>
+    <sheet name="Sprint 9" sheetId="12" r:id="rId14"/>
+    <sheet name="Sprint 10" sheetId="13" r:id="rId15"/>
+    <sheet name="Sprint 11" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -4189,6 +4190,207 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BCC09D-5893-470D-8226-7C2AE1C459B3}">
   <dimension ref="A1:B108"/>
   <sheetViews>
@@ -4909,7 +5111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC231E-7F14-492E-99A3-BD5D1C9A8E0C}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -5175,7 +5377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D4140-E6B8-477D-B47E-3E41FD805E02}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -5522,7 +5724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8597025-EC5D-4A18-8BAD-57A9E1086108}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -5721,11 +5923,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A575EBB-603B-4DF0-B3D4-A9F6CE80C04F}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5882,11 +6084,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7563B8-890A-4DBD-9669-9D67E55F639E}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7393,7 +7595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -8546,6 +8748,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF33A7BA-5A21-41C9-BE2A-E68A52EBA92C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
@@ -9138,7 +9352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -9169,205 +9383,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1">
-      <c r="A10" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B27" t="s">
-        <v>483</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>